--- a/data/trans_orig/IP09B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDCF48B9-1E03-49D2-8796-15F474B1BD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6C86C5-EF54-45DD-B5FD-466E25DA8702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E15449A3-2C91-4F89-89F0-4FE5726367EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D30D61D-9AE8-4379-B317-9919D843C286}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,7 +77,7 @@
     <t>85,48%</t>
   </si>
   <si>
-    <t>57,86%</t>
+    <t>57,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,19 +86,19 @@
     <t>67,25%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,14%</t>
+    <t>42,29%</t>
   </si>
   <si>
     <t>32,75%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>61,87%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>53,07%</t>
+    <t>52,93%</t>
   </si>
   <si>
     <t>70,35%</t>
@@ -167,19 +167,19 @@
     <t>38,13%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>37,98%</t>
@@ -188,7 +188,7 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>46,93%</t>
+    <t>47,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>72,26%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>34,66%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -311,418 +311,418 @@
     <t>59,25%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>64,56%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
   </si>
   <si>
     <t>36,24%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
   </si>
   <si>
     <t>35,44%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>61,85%</t>
   </si>
   <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
     <t>47,59%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>52,41%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
     <t>58,2%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>47,29%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>55,21%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>44,79%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
@@ -731,205 +731,205 @@
     <t>69,71%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>35,27%</t>
+    <t>32,88%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>64,73%</t>
+    <t>67,12%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>78,69%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>76,7%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>21,31%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>23,3%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>72,93%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>67,8%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>63,35%</t>
   </si>
   <si>
     <t>70,15%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB12C80-F164-4651-AEA8-D293774EDA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F98F25-E23D-4101-A250-EA83BE044762}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C12227-4E17-42C1-A006-FB074CD1703C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781063B-E771-4548-8DD0-88AB70981231}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61233BAD-C223-4D71-A83F-D7BF894EB877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC15B5-4503-4885-AFBD-E528EAB17637}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3298,7 @@
         <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3307,7 +3307,7 @@
         <v>12025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>200</v>
@@ -3346,10 +3346,10 @@
         <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3358,7 +3358,7 @@
         <v>9731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>208</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF15EAD-0174-4702-B967-F7A8A9F37290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93A596-8800-4DA9-B700-ACCAED7E9332}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,10 +3876,10 @@
         <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3888,13 +3888,13 @@
         <v>29069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -3903,13 +3903,13 @@
         <v>67699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3924,13 @@
         <v>20211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -3939,13 +3939,13 @@
         <v>8829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -3954,13 +3954,13 @@
         <v>29040</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4028,13 @@
         <v>15259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4043,13 +4043,13 @@
         <v>10989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4058,13 +4058,13 @@
         <v>26249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4079,13 @@
         <v>5664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4094,13 +4094,13 @@
         <v>5868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -4109,13 +4109,13 @@
         <v>11531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>60712</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -4198,13 +4198,13 @@
         <v>44810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -4213,13 +4213,13 @@
         <v>105523</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4234,13 @@
         <v>28839</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4249,10 +4249,10 @@
         <v>16066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>293</v>

--- a/data/trans_orig/IP09B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6C86C5-EF54-45DD-B5FD-466E25DA8702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43710ED6-24B6-4794-8FDB-F9E0FA643936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D30D61D-9AE8-4379-B317-9919D843C286}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4E18BE65-899D-41AD-BDB3-B2E20F4600E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,6%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2007 (Tasa respuesta: 9,6%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>57,71%</t>
+    <t>56,21%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
     <t>14,52%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>43,79%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,799 +137,796 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
     <t>61,87%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>38,13%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>63,76%</t>
   </si>
   <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>55,27%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>Menores según afecte al nivel de asistencia al cole/guardería dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>69,48%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>30,52%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F98F25-E23D-4101-A250-EA83BE044762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E567445-F7F0-462D-9223-CA3F6FFCB14A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,10 +1456,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>8862</v>
+        <v>5258</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1474,10 +1471,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>5258</v>
+        <v>8862</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1510,10 +1507,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>1505</v>
+        <v>2560</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1525,10 +1522,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2560</v>
+        <v>1505</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1561,25 +1558,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7818</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10367</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7818</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1614,10 +1611,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>31834</v>
+        <v>18502</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1629,10 +1626,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>18502</v>
+        <v>31834</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1665,10 +1662,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>19619</v>
+        <v>11201</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1680,10 +1677,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>11201</v>
+        <v>19619</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1716,25 +1713,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29703</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>77</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>51453</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1769,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>14213</v>
+        <v>11991</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1784,10 +1781,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>11991</v>
+        <v>14213</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1820,10 +1817,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>5457</v>
+        <v>5205</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1835,10 +1832,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>5205</v>
+        <v>5457</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1871,25 +1868,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17196</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>29</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19670</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17196</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>54908</v>
+        <v>35751</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1939,10 +1936,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I13" s="7">
-        <v>35751</v>
+        <v>54908</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1975,10 +1972,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>26582</v>
+        <v>18966</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1990,10 +1987,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>18966</v>
+        <v>26582</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2026,25 +2023,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>81</v>
+      </c>
+      <c r="D15" s="7">
+        <v>54717</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>121</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>81490</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>81</v>
-      </c>
-      <c r="I15" s="7">
-        <v>54717</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781063B-E771-4548-8DD0-88AB70981231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BEAB1B-E974-48CB-AE82-E23B6C1B7D9E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>6844</v>
+        <v>7350</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2225,10 +2222,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>7350</v>
+        <v>6844</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2261,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>4707</v>
+        <v>5396</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2276,10 +2273,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>5396</v>
+        <v>4707</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2312,25 +2309,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12746</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11551</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2365,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>42834</v>
+        <v>35571</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2380,10 +2377,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>35571</v>
+        <v>42834</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2416,10 +2413,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>24349</v>
+        <v>18685</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2431,10 +2428,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>18685</v>
+        <v>24349</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2467,25 +2464,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54256</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>96</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67183</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54256</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2520,28 +2517,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10627</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>11060</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10627</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>128</v>
@@ -2571,28 +2568,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4613</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8761</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4613</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>136</v>
@@ -2622,25 +2619,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15240</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19821</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15240</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2675,10 +2672,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>60738</v>
+        <v>53548</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2690,10 +2687,10 @@
         <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>53548</v>
+        <v>60738</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2726,10 +2723,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>37817</v>
+        <v>28694</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>150</v>
@@ -2741,10 +2738,10 @@
         <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>28694</v>
+        <v>37817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2777,25 +2774,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>121</v>
+      </c>
+      <c r="D15" s="7">
+        <v>82242</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>139</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>98555</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>121</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82242</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC15B5-4503-4885-AFBD-E528EAB17637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF5C8EE-FE93-423E-B378-279B8D3D7EC2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,34 +2958,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>644</v>
+        <v>2844</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2844</v>
+        <v>644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2997,13 +2994,13 @@
         <v>3488</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,31 +3012,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2129</v>
+        <v>1605</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1605</v>
+        <v>2129</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3048,13 +3045,13 @@
         <v>3734</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,25 +3060,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2773</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3116,34 +3113,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17059</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="7">
         <v>33</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>22763</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="7">
-        <v>25</v>
-      </c>
-      <c r="I7" s="7">
-        <v>17059</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -3152,13 +3149,13 @@
         <v>39822</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,31 +3167,31 @@
         <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>15752</v>
+        <v>14018</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>14018</v>
+        <v>15752</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -3203,13 +3200,13 @@
         <v>29770</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,25 +3215,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31077</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>55</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38515</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3274,31 +3271,31 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>5913</v>
+        <v>6112</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6112</v>
+        <v>5913</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3307,13 +3304,13 @@
         <v>12025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,34 +3319,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5485</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>4246</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5485</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -3358,7 +3355,7 @@
         <v>9731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>208</v>
@@ -3373,25 +3370,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11597</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10159</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11597</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3426,10 +3423,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>29320</v>
+        <v>26016</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>210</v>
@@ -3441,10 +3438,10 @@
         <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>26016</v>
+        <v>29320</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>213</v>
@@ -3477,10 +3474,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>22127</v>
+        <v>21107</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>219</v>
@@ -3492,10 +3489,10 @@
         <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>21107</v>
+        <v>22127</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>222</v>
@@ -3528,25 +3525,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>51447</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>47123</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93A596-8800-4DA9-B700-ACCAED7E9332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1590AE49-B7AF-493C-BFF2-D82F8D3508B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,10 +3709,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>6822</v>
+        <v>8041</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3724,28 +3721,28 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7486</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4752</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>11575</v>
+        <v>15527</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>234</v>
@@ -3763,49 +3760,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2965</v>
+        <v>1341</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3422</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1369</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4334</v>
+        <v>4763</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,25 +3811,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9382</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
-        <v>9787</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
       <c r="I6" s="7">
-        <v>6121</v>
+        <v>10908</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3844,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>15909</v>
+        <v>20290</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3867,49 +3864,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29125</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="7">
         <v>49</v>
       </c>
-      <c r="D7" s="7">
-        <v>38631</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>44971</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="7">
-        <v>43</v>
-      </c>
-      <c r="I7" s="7">
-        <v>29069</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>67699</v>
+        <v>74096</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +3915,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>20211</v>
+        <v>8448</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7">
+        <v>20846</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="7">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8829</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>29040</v>
+        <v>29294</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,25 +3966,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>37573</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>79</v>
       </c>
-      <c r="D9" s="7">
-        <v>58842</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>56</v>
-      </c>
       <c r="I9" s="7">
-        <v>37898</v>
+        <v>65817</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +3999,7 @@
         <v>135</v>
       </c>
       <c r="N9" s="7">
-        <v>96739</v>
+        <v>103390</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4022,49 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10959</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>15259</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>16065</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10989</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>26249</v>
+        <v>27024</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5634</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>5664</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>6239</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5868</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>11531</v>
+        <v>11873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4124,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>20923</v>
+        <v>16593</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4139,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16857</v>
+        <v>22304</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4154,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>37780</v>
+        <v>38897</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4177,49 +4174,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7">
+        <v>48125</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="7">
         <v>77</v>
       </c>
-      <c r="D13" s="7">
-        <v>60712</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>68522</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="H13" s="7">
-        <v>64</v>
-      </c>
-      <c r="I13" s="7">
-        <v>44810</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
       </c>
       <c r="N13" s="7">
-        <v>105523</v>
+        <v>116648</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,49 +4225,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15423</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="7">
         <v>43</v>
       </c>
-      <c r="D14" s="7">
-        <v>28839</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>30507</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16066</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>44905</v>
+        <v>45930</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,25 +4276,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>89</v>
+      </c>
+      <c r="D15" s="7">
+        <v>63548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>89</v>
-      </c>
       <c r="I15" s="7">
-        <v>60876</v>
+        <v>99029</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4309,7 @@
         <v>209</v>
       </c>
       <c r="N15" s="7">
-        <v>150428</v>
+        <v>162578</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
